--- a/Shading Trees/my_graphs/Water Change by Activities.xlsx
+++ b/Shading Trees/my_graphs/Water Change by Activities.xlsx
@@ -432,13 +432,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007040304825758348</v>
+        <v>5.952233222217274E-05</v>
       </c>
       <c r="C2">
-        <v>-0.01795980039548795</v>
+        <v>0.001518413239537608</v>
       </c>
       <c r="D2">
-        <v>-0.0004835455321152704</v>
+        <v>4.08814085746112E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.00550143268317882</v>
+        <v>1.198618146958097E-06</v>
       </c>
       <c r="C3">
-        <v>0.1065582323299736</v>
+        <v>2.321624901924224E-05</v>
       </c>
       <c r="D3">
-        <v>0.007702006216604218</v>
+        <v>1.678065508770032E-06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,13 +460,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002901165241101289</v>
+        <v>1.828308207052487E-07</v>
       </c>
       <c r="C4">
-        <v>10.46027285930177</v>
+        <v>0.000659204185467388</v>
       </c>
       <c r="D4">
-        <v>0.02575365935950735</v>
+        <v>1.62299017070211E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,13 +474,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.0002383640338632365</v>
+        <v>7.143911230356181E-06</v>
       </c>
       <c r="C5">
-        <v>-0.003228617540427692</v>
+        <v>9.676357935362034E-05</v>
       </c>
       <c r="D5">
-        <v>-7.906614809205514E-05</v>
+        <v>2.369659273415703E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -488,13 +488,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0006800663631946757</v>
+        <v>4.719392351915097E-07</v>
       </c>
       <c r="C6">
-        <v>-0.01734847629603919</v>
+        <v>1.203915835290559E-05</v>
       </c>
       <c r="D6">
-        <v>-0.0004670863827677119</v>
+        <v>3.241395284681037E-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -502,13 +502,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.07177288873062793</v>
+        <v>2.841054535096532E-05</v>
       </c>
       <c r="C7">
-        <v>-180.5735408086766</v>
+        <v>0.0831647966260789</v>
       </c>
       <c r="D7">
-        <v>-0.6371283170740867</v>
+        <v>0.000252200563011229</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -516,13 +516,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.2051892812654614</v>
+        <v>0.06090729870675204</v>
       </c>
       <c r="C8">
-        <v>-11.6805784204771</v>
+        <v>2.841385841253214</v>
       </c>
       <c r="D8">
-        <v>-0.1258201007287596</v>
+        <v>0.01725331713203104</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -530,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0003917650687030871</v>
+        <v>0.000895316551322356</v>
       </c>
       <c r="C9">
-        <v>-0.01209020646554393</v>
+        <v>0.02763023766601691</v>
       </c>
       <c r="D9">
-        <v>-0.02236855030358242</v>
+        <v>0.05111975241229061</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -544,13 +544,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.09872898486923987</v>
+        <v>0.08377342072731153</v>
       </c>
       <c r="C10">
-        <v>-1.615439358092772</v>
+        <v>0.3104966510654776</v>
       </c>
       <c r="D10">
-        <v>-0.1120310547448753</v>
+        <v>0.05528741091291067</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -558,13 +558,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-8.508771961324157E-05</v>
+        <v>2.12864503401633E-06</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>-0.001488705780587907</v>
+        <v>3.724305243224535E-05</v>
       </c>
     </row>
   </sheetData>
